--- a/biology/Zoologie/Ergates_faber/Ergates_faber.xlsx
+++ b/biology/Zoologie/Ergates_faber/Ergates_faber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ergate forgeron (Ergates faber) est une espèce d'insectes coléoptères de la famille des Cerambycidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut atteindre jusqu'à 60 mm de long.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se trouve en France[3] mais surtout en Europe centrale et orientale, jusqu'en Afrique du Nord et Moyen-Orient.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se trouve en France mais surtout en Europe centrale et orientale, jusqu'en Afrique du Nord et Moyen-Orient.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La larve se développe pendant 4 à 5 ans dans le bois de conifère mort avant de se métamorphoser en un individu adulte dont la durée de vie est d'environ deux semaines.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 juin 2017)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 juin 2017) :
 sous-espèce Ergates faber opifex Mulsant, 1851</t>
         </is>
       </c>
